--- a/Project Wing/Source/Results/Network/Backhauling/Duduza-[2019 Nov 21 06-55]-Normal.xlsx
+++ b/Project Wing/Source/Results/Network/Backhauling/Duduza-[2019 Nov 21 06-55]-Normal.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22307"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kloniphani Maluleke\Projects\Exocoetidae\Project Wing\Source\Results\Network\Backhauling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AB4C87-902B-485A-8B2F-21FCFF4D39D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -130,8 +136,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,7 +200,4898 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4291046376074868E-2"/>
+          <c:y val="2.0328024515266066E-2"/>
+          <c:w val="0.87933047803402808"/>
+          <c:h val="0.75748885116837683"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimum SNR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-122.3051895323034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75F1-4F31-8C7E-556D4BADC5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maximum SNR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-39.081387827965187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75F1-4F31-8C7E-556D4BADC5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="2031725424"/>
+        <c:axId val="1847295040"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Backhauling CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75F1-4F31-8C7E-556D4BADC5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Myopic CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:srgbClr val="9BBB59"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-BE51-4DAC-984E-25B28300C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSGBACK CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="sq">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="1F497D"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="sq">
+                <a:solidFill>
+                  <a:srgbClr val="1F497D"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="none"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-75F1-4F31-8C7E-556D4BADC5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSLBACK CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-75F1-4F31-8C7E-556D4BADC5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K-Means CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="sq">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="sq">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="97000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$L$2:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-75F1-4F31-8C7E-556D4BADC5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Backhauling Unassigned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$AA$2:$AA$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-BE51-4DAC-984E-25B28300C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Myopic Unassigned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:srgbClr val="9BBB59"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$AB$2:$AB$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-BE51-4DAC-984E-25B28300C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSGBACK Unassigned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="1F497D"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="1F497D"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:srgbClr val="1F497D"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$AC$2:$AC$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-BE51-4DAC-984E-25B28300C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSLBACK Unassigned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$AD$2:$AD$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-BE51-4DAC-984E-25B28300C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K-Means Unassigned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$AH$2:$AH$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-BE51-4DAC-984E-25B28300C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="552253168"/>
+        <c:axId val="561859096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="552253168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Emulation Count (#)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561859096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="561859096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Node Count (#)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552253168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1847295040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-100"/>
+          <c:min val="-170"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>SNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2031725424"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2031725424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1847295040"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.5019596320936918E-2"/>
+          <c:y val="0.88636218785877774"/>
+          <c:w val="0.89998573121003267"/>
+          <c:h val="7.6677788626498586E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4291046376074868E-2"/>
+          <c:y val="2.0328024515266066E-2"/>
+          <c:w val="0.87933047803402808"/>
+          <c:h val="0.75748885116837683"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimum SNR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-122.3051895323034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-106.9783997092332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75F1-4F31-8C7E-556D4BADC5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maximum SNR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-39.081387827965187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-37.628658051048177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75F1-4F31-8C7E-556D4BADC5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="2031725424"/>
+        <c:axId val="1847295040"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Myopic CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:srgbClr val="9BBB59"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-BE51-4DAC-984E-25B28300C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Odd CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="sq">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="1F497D"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="sq">
+                <a:solidFill>
+                  <a:srgbClr val="1F497D"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd type="none"/>
+                <a:tailEnd type="none"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$M$2:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-75F1-4F31-8C7E-556D4BADC5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Odd Range CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$N$2:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-75F1-4F31-8C7E-556D4BADC5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Converse CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="sq">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="sq">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="97000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$O$2:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-75F1-4F31-8C7E-556D4BADC5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Odd Range Unassigned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9BBB59"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:srgbClr val="9BBB59"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$AJ$2:$AJ$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-BE51-4DAC-984E-25B28300C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$AI$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Odd Unassigned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="1F497D"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="1F497D"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:srgbClr val="1F497D"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$AI$2:$AI$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-BE51-4DAC-984E-25B28300C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Myopic Unassigned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$AB$2:$AB$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-BE51-4DAC-984E-25B28300C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Backhauling Unassigned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$AA$2:$AA$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-BE51-4DAC-984E-25B28300C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="552253168"/>
+        <c:axId val="561859096"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Normal!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Backhauling CH</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FFC000"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:srgbClr val="FFC000"/>
+                    </a:solidFill>
+                    <a:ln w="50800">
+                      <a:solidFill>
+                        <a:srgbClr val="FFC000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Normal!$E$2:$E$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-75F1-4F31-8C7E-556D4BADC5D7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Normal!$AK$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Converse Unassigned</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FFC000"/>
+                    </a:solidFill>
+                    <a:prstDash val="dash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="triangle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:srgbClr val="FFC000"/>
+                    </a:solidFill>
+                    <a:ln w="50800">
+                      <a:solidFill>
+                        <a:srgbClr val="FFC000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Normal!$AK$2:$AK$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000012-BE51-4DAC-984E-25B28300C06C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="552253168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Emulation Count (#)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561859096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="561859096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Node Count (#)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552253168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1847295040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-100"/>
+          <c:min val="-170"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>SNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2031725424"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2031725424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1847295040"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.5019596320936918E-2"/>
+          <c:y val="0.88636218785877774"/>
+          <c:w val="0.89998573121003267"/>
+          <c:h val="7.6677788626498586E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61934A3-B62C-48F9-94D3-20CF14D349F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8930C2-F604-4D75-84C7-AFB64ACF6DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -240,7 +5137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +5169,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,6 +5221,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,15 +5413,647 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ39" sqref="AJ39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +6166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -609,7 +6174,7 @@
         <v>-122.3051895323034</v>
       </c>
       <c r="C2">
-        <v>-39.08138782796519</v>
+        <v>-39.081387827965187</v>
       </c>
       <c r="D2">
         <v>1494.768623183108</v>
@@ -714,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -722,7 +6287,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C3">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D3">
         <v>1251.936786503627</v>
@@ -827,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -835,7 +6400,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C4">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D4">
         <v>1251.936786503627</v>
@@ -940,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -948,7 +6513,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C5">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D5">
         <v>1251.936786503627</v>
@@ -1053,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1061,7 +6626,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C6">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D6">
         <v>1251.936786503627</v>
@@ -1166,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1174,7 +6739,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C7">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D7">
         <v>1251.936786503627</v>
@@ -1279,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1287,7 +6852,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C8">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D8">
         <v>1251.936786503627</v>
@@ -1392,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1400,7 +6965,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C9">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D9">
         <v>1251.936786503627</v>
@@ -1505,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1513,7 +7078,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C10">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D10">
         <v>1251.936786503627</v>
@@ -1618,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1626,7 +7191,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C11">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D11">
         <v>1251.936786503627</v>
@@ -1731,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1739,7 +7304,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C12">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D12">
         <v>1251.936786503627</v>
@@ -1844,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1852,7 +7417,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C13">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D13">
         <v>1251.936786503627</v>
@@ -1957,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1965,7 +7530,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C14">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D14">
         <v>1251.936786503627</v>
@@ -2070,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2078,7 +7643,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C15">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D15">
         <v>1251.936786503627</v>
@@ -2183,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2191,7 +7756,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C16">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D16">
         <v>1251.936786503627</v>
@@ -2296,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2304,7 +7869,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C17">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D17">
         <v>1251.936786503627</v>
@@ -2409,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2417,7 +7982,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C18">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D18">
         <v>1251.936786503627</v>
@@ -2522,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2530,7 +8095,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C19">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D19">
         <v>1251.936786503627</v>
@@ -2635,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2643,7 +8208,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C20">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D20">
         <v>1251.936786503627</v>
@@ -2748,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2756,7 +8321,7 @@
         <v>-106.9783997092332</v>
       </c>
       <c r="C21">
-        <v>-37.62865805104818</v>
+        <v>-37.628658051048177</v>
       </c>
       <c r="D21">
         <v>1251.936786503627</v>
@@ -2863,5 +8428,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Wing/Source/Results/Network/Backhauling/Duduza-[2019 Nov 21 06-55]-Normal.xlsx
+++ b/Project Wing/Source/Results/Network/Backhauling/Duduza-[2019 Nov 21 06-55]-Normal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kloniphani Maluleke\Projects\Exocoetidae\Project Wing\Source\Results\Network\Backhauling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Exocoetidae\Project Wing\Source\Results\Network\Backhauling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AB4C87-902B-485A-8B2F-21FCFF4D39D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972E7EB1-F4AD-43B3-A139-DBA42CA52648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
@@ -488,7 +488,7 @@
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:srgbClr val="FFC000"/>
                 </a:solidFill>
@@ -587,7 +587,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="9BBB59"/>
               </a:solidFill>
@@ -602,7 +602,7 @@
               <a:solidFill>
                 <a:srgbClr val="9BBB59"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:srgbClr val="9BBB59"/>
                 </a:solidFill>
@@ -701,9 +701,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="sq">
+            <a:ln w="22225" cap="sq">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:srgbClr val="1F497D"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -716,7 +716,7 @@
               <a:solidFill>
                 <a:srgbClr val="1F497D"/>
               </a:solidFill>
-              <a:ln w="50800" cap="sq">
+              <a:ln w="28575" cap="sq">
                 <a:solidFill>
                   <a:srgbClr val="1F497D"/>
                 </a:solidFill>
@@ -818,7 +818,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -834,9 +834,9 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -934,7 +934,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="sq">
+            <a:ln w="22225" cap="sq">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -950,7 +950,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="50800" cap="sq">
+              <a:ln w="28575" cap="sq">
                 <a:solidFill>
                   <a:srgbClr val="FF0000">
                     <a:alpha val="97000"/>
@@ -1051,7 +1051,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
@@ -1067,7 +1067,7 @@
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:srgbClr val="FFC000"/>
                 </a:solidFill>
@@ -1166,7 +1166,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="9BBB59"/>
               </a:solidFill>
@@ -1182,7 +1182,7 @@
               <a:solidFill>
                 <a:srgbClr val="9BBB59"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:srgbClr val="9BBB59"/>
                 </a:solidFill>
@@ -1281,7 +1281,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="1F497D"/>
               </a:solidFill>
@@ -1297,7 +1297,7 @@
               <a:solidFill>
                 <a:srgbClr val="1F497D"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:srgbClr val="1F497D"/>
                 </a:solidFill>
@@ -1396,7 +1396,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1412,7 +1412,7 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1511,7 +1511,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1527,7 +1527,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -2017,12 +2017,7 @@
   <c:spPr>
     <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2303,6 +2298,120 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Backhauling CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75F1-4F31-8C7E-556D4BADC5D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="11"/>
           <c:order val="3"/>
           <c:tx>
@@ -2317,7 +2426,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="9BBB59"/>
               </a:solidFill>
@@ -2332,7 +2441,7 @@
               <a:solidFill>
                 <a:srgbClr val="9BBB59"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:srgbClr val="9BBB59"/>
                 </a:solidFill>
@@ -2431,9 +2540,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="sq">
+            <a:ln w="22225" cap="sq">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:srgbClr val="1F497D"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2446,7 +2555,7 @@
               <a:solidFill>
                 <a:srgbClr val="1F497D"/>
               </a:solidFill>
-              <a:ln w="50800" cap="sq">
+              <a:ln w="28575" cap="sq">
                 <a:solidFill>
                   <a:srgbClr val="1F497D"/>
                 </a:solidFill>
@@ -2548,7 +2657,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2564,9 +2673,9 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -2664,7 +2773,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="sq">
+            <a:ln w="22225" cap="sq">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -2680,7 +2789,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="50800" cap="sq">
+              <a:ln w="28575" cap="sq">
                 <a:solidFill>
                   <a:srgbClr val="FF0000">
                     <a:alpha val="97000"/>
@@ -2767,6 +2876,121 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Normal!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Converse Unassigned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Normal!$AK$2:$AK$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-BE51-4DAC-984E-25B28300C06C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
           <c:order val="8"/>
           <c:tx>
@@ -2781,7 +3005,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="9BBB59"/>
               </a:solidFill>
@@ -2797,7 +3021,7 @@
               <a:solidFill>
                 <a:srgbClr val="9BBB59"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:srgbClr val="9BBB59"/>
                 </a:solidFill>
@@ -2896,7 +3120,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="1F497D"/>
               </a:solidFill>
@@ -2912,7 +3136,7 @@
               <a:solidFill>
                 <a:srgbClr val="1F497D"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:srgbClr val="1F497D"/>
                 </a:solidFill>
@@ -3011,7 +3235,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3027,7 +3251,7 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3126,7 +3350,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3142,7 +3366,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="50800">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -3238,267 +3462,6 @@
         <c:smooth val="0"/>
         <c:axId val="552253168"/>
         <c:axId val="561859096"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Normal!$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Backhauling CH</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:srgbClr val="FFC000"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:srgbClr val="FFC000"/>
-                    </a:solidFill>
-                    <a:ln w="50800">
-                      <a:solidFill>
-                        <a:srgbClr val="FFC000"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Normal!$E$2:$E$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>4</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="1"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-75F1-4F31-8C7E-556D4BADC5D7}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Normal!$AK$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Converse Unassigned</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:srgbClr val="FFC000"/>
-                    </a:solidFill>
-                    <a:prstDash val="dash"/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="triangle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:srgbClr val="FFC000"/>
-                    </a:solidFill>
-                    <a:ln w="50800">
-                      <a:solidFill>
-                        <a:srgbClr val="FFC000"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Normal!$AK$2:$AK$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="1"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000012-BE51-4DAC-984E-25B28300C06C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="552253168"/>
@@ -3528,7 +3491,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Emulation Count (#)</a:t>
+                  <a:t>Title</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3643,7 +3606,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Node Count (#)</a:t>
+                  <a:t>Title</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3742,7 +3705,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>SNR (dB)</a:t>
+                  <a:t>Title</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3893,12 +3856,7 @@
   <c:spPr>
     <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -6047,8 +6005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ39" sqref="AJ39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
